--- a/data/output/Pedido_Semana_07_15022026_interior.xlsx
+++ b/data/output/Pedido_Semana_07_15022026_interior.xlsx
@@ -1452,7 +1452,7 @@
         <v>1</v>
       </c>
       <c r="L12" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="6" t="n">
         <v>3.75</v>
@@ -1776,7 +1776,7 @@
         <v>1</v>
       </c>
       <c r="L16" s="3" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M16" s="6" t="n">
         <v>9.4</v>
@@ -2019,7 +2019,7 @@
         <v>1</v>
       </c>
       <c r="L19" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" s="6" t="n">
         <v>5</v>
@@ -2181,7 +2181,7 @@
         <v>1</v>
       </c>
       <c r="L21" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M21" s="6" t="n">
         <v>7.12</v>
@@ -2586,7 +2586,7 @@
         <v>1</v>
       </c>
       <c r="L26" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" s="6" t="n">
         <v>6.12</v>
@@ -2748,7 +2748,7 @@
         <v>2</v>
       </c>
       <c r="L28" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" s="6" t="n">
         <v>21.38</v>
@@ -3315,7 +3315,7 @@
         <v>3</v>
       </c>
       <c r="L35" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35" s="6" t="n">
         <v>145.95</v>
@@ -3396,7 +3396,7 @@
         <v>3</v>
       </c>
       <c r="L36" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M36" s="6" t="n">
         <v>178.42</v>
@@ -3801,7 +3801,7 @@
         <v>1</v>
       </c>
       <c r="L41" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M41" s="6" t="n">
         <v>17.02</v>
@@ -4530,7 +4530,7 @@
         <v>2</v>
       </c>
       <c r="L50" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M50" s="6" t="n">
         <v>17.88</v>
@@ -4611,7 +4611,7 @@
         <v>1</v>
       </c>
       <c r="L51" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51" s="6" t="n">
         <v>7.82</v>
@@ -4773,7 +4773,7 @@
         <v>1</v>
       </c>
       <c r="L53" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M53" s="6" t="n">
         <v>8.949999999999999</v>
@@ -5016,7 +5016,7 @@
         <v>1</v>
       </c>
       <c r="L56" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M56" s="6" t="n">
         <v>8.75</v>
@@ -5097,7 +5097,7 @@
         <v>2</v>
       </c>
       <c r="L57" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M57" s="6" t="n">
         <v>12.75</v>
@@ -6069,7 +6069,7 @@
         <v>2</v>
       </c>
       <c r="L69" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M69" s="6" t="n">
         <v>90.62</v>
@@ -6393,7 +6393,7 @@
         <v>3</v>
       </c>
       <c r="L73" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M73" s="6" t="n">
         <v>26.2</v>
@@ -7608,7 +7608,7 @@
         <v>11</v>
       </c>
       <c r="L88" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M88" s="6" t="n">
         <v>74.8</v>
@@ -7689,7 +7689,7 @@
         <v>12</v>
       </c>
       <c r="L89" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M89" s="6" t="n">
         <v>42.9</v>
@@ -7851,7 +7851,7 @@
         <v>1</v>
       </c>
       <c r="L91" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M91" s="6" t="n">
         <v>8.15</v>
@@ -8094,7 +8094,7 @@
         <v>1</v>
       </c>
       <c r="L94" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M94" s="6" t="n">
         <v>15.9</v>
@@ -8261,7 +8261,7 @@
         </is>
       </c>
       <c r="C108" s="5" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/Pedido_Semana_07_15022026_interior.xlsx
+++ b/data/output/Pedido_Semana_07_15022026_interior.xlsx
@@ -727,7 +727,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="6" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>3</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M4" s="6" t="n">
         <v>262.5</v>
@@ -885,7 +885,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="6" t="n">
         <v>95</v>
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="6" t="n">
         <v>70</v>
@@ -1047,7 +1047,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="6" t="n">
         <v>12.5</v>
@@ -1128,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="6" t="n">
         <v>25</v>
@@ -1209,7 +1209,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="6" t="n">
         <v>12.5</v>
@@ -1290,7 +1290,7 @@
         <v>4</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M10" s="6" t="n">
         <v>376.75</v>
@@ -1371,7 +1371,7 @@
         <v>3</v>
       </c>
       <c r="L11" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M11" s="6" t="n">
         <v>190.75</v>
@@ -1452,7 +1452,7 @@
         <v>1</v>
       </c>
       <c r="L12" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="6" t="n">
         <v>3.75</v>
@@ -1533,7 +1533,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="6" t="n">
         <v>8.58</v>
@@ -1614,7 +1614,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="6" t="n">
         <v>50.3</v>
@@ -1695,7 +1695,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="6" t="n">
         <v>59.1</v>
@@ -1776,7 +1776,7 @@
         <v>1</v>
       </c>
       <c r="L16" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="6" t="n">
         <v>9.4</v>
@@ -1857,7 +1857,7 @@
         <v>1</v>
       </c>
       <c r="L17" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="6" t="n">
         <v>10.8</v>
@@ -1938,7 +1938,7 @@
         <v>1</v>
       </c>
       <c r="L18" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="6" t="n">
         <v>1.42</v>
@@ -2019,7 +2019,7 @@
         <v>1</v>
       </c>
       <c r="L19" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="6" t="n">
         <v>5</v>
@@ -2100,7 +2100,7 @@
         <v>1</v>
       </c>
       <c r="L20" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="6" t="n">
         <v>43.75</v>
@@ -2181,7 +2181,7 @@
         <v>1</v>
       </c>
       <c r="L21" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="6" t="n">
         <v>7.12</v>
@@ -2262,7 +2262,7 @@
         <v>1</v>
       </c>
       <c r="L22" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="6" t="n">
         <v>5.05</v>
@@ -2343,7 +2343,7 @@
         <v>1</v>
       </c>
       <c r="L23" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="6" t="n">
         <v>26.2</v>
@@ -2424,7 +2424,7 @@
         <v>1</v>
       </c>
       <c r="L24" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="6" t="n">
         <v>17.15</v>
@@ -2505,7 +2505,7 @@
         <v>1</v>
       </c>
       <c r="L25" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" s="6" t="n">
         <v>62.47</v>
@@ -2586,7 +2586,7 @@
         <v>1</v>
       </c>
       <c r="L26" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" s="6" t="n">
         <v>6.12</v>
@@ -2667,7 +2667,7 @@
         <v>1</v>
       </c>
       <c r="L27" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" s="6" t="n">
         <v>25.55</v>
@@ -2748,7 +2748,7 @@
         <v>2</v>
       </c>
       <c r="L28" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M28" s="6" t="n">
         <v>21.38</v>
@@ -2829,7 +2829,7 @@
         <v>1</v>
       </c>
       <c r="L29" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" s="6" t="n">
         <v>4.25</v>
@@ -2910,7 +2910,7 @@
         <v>1</v>
       </c>
       <c r="L30" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" s="6" t="n">
         <v>21.65</v>
@@ -2991,7 +2991,7 @@
         <v>2</v>
       </c>
       <c r="L31" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M31" s="6" t="n">
         <v>16.1</v>
@@ -3072,7 +3072,7 @@
         <v>1</v>
       </c>
       <c r="L32" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" s="6" t="n">
         <v>4.95</v>
@@ -3153,7 +3153,7 @@
         <v>2</v>
       </c>
       <c r="L33" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M33" s="6" t="n">
         <v>101.9</v>
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="L34" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" s="6" t="n">
         <v>21.15</v>
@@ -3315,7 +3315,7 @@
         <v>3</v>
       </c>
       <c r="L35" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M35" s="6" t="n">
         <v>145.95</v>
@@ -3396,7 +3396,7 @@
         <v>3</v>
       </c>
       <c r="L36" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M36" s="6" t="n">
         <v>178.42</v>
@@ -3477,7 +3477,7 @@
         <v>1</v>
       </c>
       <c r="L37" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37" s="6" t="n">
         <v>20.7</v>
@@ -3558,7 +3558,7 @@
         <v>2</v>
       </c>
       <c r="L38" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M38" s="6" t="n">
         <v>118</v>
@@ -3639,7 +3639,7 @@
         <v>1</v>
       </c>
       <c r="L39" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" s="6" t="n">
         <v>18.5</v>
@@ -3720,7 +3720,7 @@
         <v>1</v>
       </c>
       <c r="L40" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" s="6" t="n">
         <v>24.65</v>
@@ -3801,7 +3801,7 @@
         <v>1</v>
       </c>
       <c r="L41" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" s="6" t="n">
         <v>17.02</v>
@@ -3882,7 +3882,7 @@
         <v>1</v>
       </c>
       <c r="L42" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42" s="6" t="n">
         <v>2.4</v>
@@ -3963,7 +3963,7 @@
         <v>2</v>
       </c>
       <c r="L43" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M43" s="6" t="n">
         <v>68.8</v>
@@ -4044,7 +4044,7 @@
         <v>2</v>
       </c>
       <c r="L44" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M44" s="6" t="n">
         <v>65</v>
@@ -4125,7 +4125,7 @@
         <v>1</v>
       </c>
       <c r="L45" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" s="6" t="n">
         <v>26.8</v>
@@ -4206,7 +4206,7 @@
         <v>1</v>
       </c>
       <c r="L46" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" s="6" t="n">
         <v>14.95</v>
@@ -4287,7 +4287,7 @@
         <v>1</v>
       </c>
       <c r="L47" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47" s="6" t="n">
         <v>15.45</v>
@@ -4368,7 +4368,7 @@
         <v>1</v>
       </c>
       <c r="L48" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48" s="6" t="n">
         <v>21.98</v>
@@ -4449,7 +4449,7 @@
         <v>1</v>
       </c>
       <c r="L49" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49" s="6" t="n">
         <v>10.52</v>
@@ -4530,7 +4530,7 @@
         <v>2</v>
       </c>
       <c r="L50" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M50" s="6" t="n">
         <v>17.88</v>
@@ -4611,7 +4611,7 @@
         <v>1</v>
       </c>
       <c r="L51" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51" s="6" t="n">
         <v>7.82</v>
@@ -4692,7 +4692,7 @@
         <v>1</v>
       </c>
       <c r="L52" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52" s="6" t="n">
         <v>5.45</v>
@@ -4773,7 +4773,7 @@
         <v>1</v>
       </c>
       <c r="L53" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53" s="6" t="n">
         <v>8.949999999999999</v>
@@ -4854,7 +4854,7 @@
         <v>1</v>
       </c>
       <c r="L54" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M54" s="6" t="n">
         <v>4.97</v>
@@ -4935,7 +4935,7 @@
         <v>1</v>
       </c>
       <c r="L55" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M55" s="6" t="n">
         <v>3.58</v>
@@ -5016,7 +5016,7 @@
         <v>1</v>
       </c>
       <c r="L56" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56" s="6" t="n">
         <v>8.75</v>
@@ -5097,7 +5097,7 @@
         <v>2</v>
       </c>
       <c r="L57" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M57" s="6" t="n">
         <v>12.75</v>
@@ -5178,7 +5178,7 @@
         <v>2</v>
       </c>
       <c r="L58" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M58" s="6" t="n">
         <v>135.6</v>
@@ -5259,7 +5259,7 @@
         <v>1</v>
       </c>
       <c r="L59" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59" s="6" t="n">
         <v>39.1</v>
@@ -5340,7 +5340,7 @@
         <v>1</v>
       </c>
       <c r="L60" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M60" s="6" t="n">
         <v>4.03</v>
@@ -5421,7 +5421,7 @@
         <v>1</v>
       </c>
       <c r="L61" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M61" s="6" t="n">
         <v>29.55</v>
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="L62" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62" s="6" t="n">
         <v>45.75</v>
@@ -5583,7 +5583,7 @@
         <v>1</v>
       </c>
       <c r="L63" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M63" s="6" t="n">
         <v>15.25</v>
@@ -5664,7 +5664,7 @@
         <v>1</v>
       </c>
       <c r="L64" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64" s="6" t="n">
         <v>9.050000000000001</v>
@@ -5745,7 +5745,7 @@
         <v>1</v>
       </c>
       <c r="L65" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M65" s="6" t="n">
         <v>16.05</v>
@@ -5826,7 +5826,7 @@
         <v>1</v>
       </c>
       <c r="L66" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M66" s="6" t="n">
         <v>6.22</v>
@@ -5907,7 +5907,7 @@
         <v>1</v>
       </c>
       <c r="L67" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M67" s="6" t="n">
         <v>16.8</v>
@@ -5988,7 +5988,7 @@
         <v>1</v>
       </c>
       <c r="L68" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M68" s="6" t="n">
         <v>9.949999999999999</v>
@@ -6069,7 +6069,7 @@
         <v>2</v>
       </c>
       <c r="L69" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M69" s="6" t="n">
         <v>90.62</v>
@@ -6150,7 +6150,7 @@
         <v>1</v>
       </c>
       <c r="L70" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M70" s="6" t="n">
         <v>48.92</v>
@@ -6231,7 +6231,7 @@
         <v>1</v>
       </c>
       <c r="L71" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M71" s="6" t="n">
         <v>72.05</v>
@@ -6312,7 +6312,7 @@
         <v>1</v>
       </c>
       <c r="L72" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M72" s="6" t="n">
         <v>39.88</v>
@@ -6393,7 +6393,7 @@
         <v>3</v>
       </c>
       <c r="L73" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M73" s="6" t="n">
         <v>26.2</v>
@@ -6474,7 +6474,7 @@
         <v>1</v>
       </c>
       <c r="L74" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M74" s="6" t="n">
         <v>0</v>
@@ -6555,7 +6555,7 @@
         <v>1</v>
       </c>
       <c r="L75" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M75" s="6" t="n">
         <v>0</v>
@@ -6636,7 +6636,7 @@
         <v>1</v>
       </c>
       <c r="L76" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M76" s="6" t="n">
         <v>34.7</v>
@@ -6717,7 +6717,7 @@
         <v>1</v>
       </c>
       <c r="L77" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M77" s="6" t="n">
         <v>45.85</v>
@@ -6798,7 +6798,7 @@
         <v>1</v>
       </c>
       <c r="L78" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M78" s="6" t="n">
         <v>25.4</v>
@@ -6879,7 +6879,7 @@
         <v>1</v>
       </c>
       <c r="L79" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M79" s="6" t="n">
         <v>37.92</v>
@@ -6960,7 +6960,7 @@
         <v>1</v>
       </c>
       <c r="L80" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M80" s="6" t="n">
         <v>51.1</v>
@@ -7041,7 +7041,7 @@
         <v>1</v>
       </c>
       <c r="L81" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M81" s="6" t="n">
         <v>28.48</v>
@@ -7122,7 +7122,7 @@
         <v>1</v>
       </c>
       <c r="L82" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M82" s="6" t="n">
         <v>36.25</v>
@@ -7203,7 +7203,7 @@
         <v>1</v>
       </c>
       <c r="L83" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M83" s="6" t="n">
         <v>15.45</v>
@@ -7284,7 +7284,7 @@
         <v>1</v>
       </c>
       <c r="L84" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M84" s="6" t="n">
         <v>50.4</v>
@@ -7365,7 +7365,7 @@
         <v>1</v>
       </c>
       <c r="L85" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M85" s="6" t="n">
         <v>18.08</v>
@@ -7446,7 +7446,7 @@
         <v>1</v>
       </c>
       <c r="L86" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M86" s="6" t="n">
         <v>23.22</v>
@@ -7527,7 +7527,7 @@
         <v>1</v>
       </c>
       <c r="L87" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M87" s="6" t="n">
         <v>21.78</v>
@@ -7608,7 +7608,7 @@
         <v>11</v>
       </c>
       <c r="L88" s="3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M88" s="6" t="n">
         <v>74.8</v>
@@ -7689,7 +7689,7 @@
         <v>12</v>
       </c>
       <c r="L89" s="3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M89" s="6" t="n">
         <v>42.9</v>
@@ -7770,7 +7770,7 @@
         <v>1</v>
       </c>
       <c r="L90" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M90" s="6" t="n">
         <v>9.07</v>
@@ -7851,7 +7851,7 @@
         <v>1</v>
       </c>
       <c r="L91" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M91" s="6" t="n">
         <v>8.15</v>
@@ -7932,7 +7932,7 @@
         <v>3</v>
       </c>
       <c r="L92" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M92" s="6" t="n">
         <v>8</v>
@@ -8013,7 +8013,7 @@
         <v>1</v>
       </c>
       <c r="L93" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M93" s="6" t="n">
         <v>1.23</v>
@@ -8094,7 +8094,7 @@
         <v>1</v>
       </c>
       <c r="L94" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M94" s="6" t="n">
         <v>15.9</v>
@@ -8261,7 +8261,7 @@
         </is>
       </c>
       <c r="C108" s="5" t="n">
-        <v>0</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
